--- a/result_graph.xlsx
+++ b/result_graph.xlsx
@@ -9,16 +9,17 @@
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>home_team_goal</t>
   </si>
@@ -66,6 +67,9 @@
   </si>
   <si>
     <t>Extérieur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faire un intervalle de confiance </t>
   </si>
 </sst>
 </file>
@@ -608,37 +612,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -683,6 +657,33 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -831,11 +832,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="401155968"/>
-        <c:axId val="401158912"/>
+        <c:axId val="327023616"/>
+        <c:axId val="375166848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="401155968"/>
+        <c:axId val="327023616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +845,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="401158912"/>
+        <c:crossAx val="375166848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -852,7 +853,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401158912"/>
+        <c:axId val="375166848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="401155968"/>
+        <c:crossAx val="327023616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1145,11 +1146,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="401207680"/>
-        <c:axId val="401210368"/>
+        <c:axId val="378191872"/>
+        <c:axId val="378194560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="401207680"/>
+        <c:axId val="378191872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,7 +1159,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="401210368"/>
+        <c:crossAx val="378194560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1166,7 +1167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401210368"/>
+        <c:axId val="378194560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,7 +1177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="401207680"/>
+        <c:crossAx val="378191872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1426,11 +1427,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="401300480"/>
-        <c:axId val="401322752"/>
+        <c:axId val="373977088"/>
+        <c:axId val="373978624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="401300480"/>
+        <c:axId val="373977088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,7 +1441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="401322752"/>
+        <c:crossAx val="373978624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1448,7 +1449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401322752"/>
+        <c:axId val="373978624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1458,7 +1459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="401300480"/>
+        <c:crossAx val="373977088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1993,7 +1994,368 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Buts Domicile" colHeaderCaption="Buts Extérieur">
+  <location ref="J2:K12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="7">
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de n" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Buts Domicile" colHeaderCaption="Buts Extérieur">
+  <location ref="J16:R28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="8">
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de n" fld="4" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <formats count="8">
+    <format dxfId="14">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="10">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+            </reference>
+            <reference field="1" count="7" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="B13:C29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -2086,7 +2448,7 @@
     <dataField name="Somme de n" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2119,8 +2481,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B2:C6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -2159,7 +2521,7 @@
     <dataField name="Somme de n" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2183,8 +2545,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Buts Domicile" colHeaderCaption="Buts Extérieur">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Buts Domicile" colHeaderCaption="Buts Extérieur">
   <location ref="L2:M9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2282,22 +2644,22 @@
     <dataField name="Somme de n" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="9">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="18">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2306,7 +2668,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2325,367 +2687,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Buts Domicile" colHeaderCaption="Buts Extérieur">
-  <location ref="J2:K12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="7">
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Somme de n" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="9"/>
-  </dataFields>
-  <formats count="7">
-    <format dxfId="16">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Buts Domicile" colHeaderCaption="Buts Extérieur">
-  <location ref="J16:R28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="8">
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Somme de n" fld="4" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="9"/>
-  </dataFields>
-  <formats count="8">
-    <format dxfId="24">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="23">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="22">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="20">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="18">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="17">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <conditionalFormats count="1">
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="10">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-            </reference>
-            <reference field="1" count="7" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -4175,8 +4176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4962,4 +4963,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>